--- a/BlackLung_Dashboard/blacklung_crosswalk-updated2.xlsx
+++ b/BlackLung_Dashboard/blacklung_crosswalk-updated2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Summit\DOL ADRA\DOL_ADRA_BlackLung\BlackLung_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0056B8CF-937A-407E-B215-4F45D020EBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D844DCB-D56A-4D00-9D6F-5EAA6E993598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{62AC56FD-1801-4442-89C9-C7A6796C2B2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{62AC56FD-1801-4442-89C9-C7A6796C2B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="143">
   <si>
     <t>factor</t>
   </si>
@@ -185,9 +185,6 @@
     <t>undergrndmines20</t>
   </si>
   <si>
-    <t>Mining Employees</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -434,15 +431,6 @@
     <t>Progressive Massive Fibrosis (PMF, most severe)</t>
   </si>
   <si>
-    <t>Cumulative Surface Black Lung Cases (1970-2014)</t>
-  </si>
-  <si>
-    <t>Cumulative Underground Black Lung Cases (1970-2014)</t>
-  </si>
-  <si>
-    <t>undrgrnd_cwp_</t>
-  </si>
-  <si>
     <t>Proportion of Black Lung Cases with complications (PMF) (1970-2014)</t>
   </si>
   <si>
@@ -458,21 +446,12 @@
     <t>Deaths per 1000 residents</t>
   </si>
   <si>
-    <t>Predicted Black Lung Cases (1970-2014)</t>
-  </si>
-  <si>
-    <t>Predicted Black Lung Deaths (1999-2020)</t>
-  </si>
-  <si>
     <t>Indicator</t>
   </si>
   <si>
     <t>Scale</t>
   </si>
   <si>
-    <t>Predictions</t>
-  </si>
-  <si>
     <t>Proportions</t>
   </si>
   <si>
@@ -480,6 +459,39 @@
   </si>
   <si>
     <t>Statistic</t>
+  </si>
+  <si>
+    <t>Cumulative Black Lung Cases - Surface Mines (1970-2014)</t>
+  </si>
+  <si>
+    <t>Cumulative Black Lung Cases - Underground Mines (1970-2014)</t>
+  </si>
+  <si>
+    <t>Mining Employment</t>
+  </si>
+  <si>
+    <t>Exposure at Surface Mines</t>
+  </si>
+  <si>
+    <t>Exposure at Underground Mines</t>
+  </si>
+  <si>
+    <t>full_title</t>
+  </si>
+  <si>
+    <t>undrgrnd_cwp</t>
+  </si>
+  <si>
+    <t>surface_cwp1</t>
+  </si>
+  <si>
+    <t>Regression-estimated Black Lung Cases (1970-2014)</t>
+  </si>
+  <si>
+    <t>Regression-estimated Black Lung Deaths (1999-2020)</t>
+  </si>
+  <si>
+    <t>Estimates</t>
   </si>
 </sst>
 </file>
@@ -890,22 +902,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0391484-ED8C-4A22-B6CA-975EA3DC564B}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="126.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -921,16 +934,19 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -938,16 +954,20 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="2" t="str">
+        <f>_xlfn.CONCAT(A2, " ", B2, " - ", D2)</f>
+        <v>Coal County Indicator - All Coal Counties</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -955,16 +975,20 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT(A3, " ", B3, " - ", D3)</f>
+        <v>Coal County Indicator - Current</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -972,84 +996,104 @@
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal County Indicator - Former</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal County Scale - All Coal Counties</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal County Scale - Current</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal County Scale - Former</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4">
         <v>1983</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Producing Mines 1983 - All mines</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="4">
         <v>1983</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>34</v>
@@ -1057,50 +1101,62 @@
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Producing Mines 1983 - Surface</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4">
         <v>1983</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Producing Mines 1983 - Underground</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4">
         <v>2020</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Producing Mines 2020 - All mines</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="4">
         <v>2020</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -1108,305 +1164,377 @@
       <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Producing Mines 2020 - Surface</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="4">
         <v>2020</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Producing Mines 2020 - Underground</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="6">
         <v>1983</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Production (x1000 short tons) 1983 - Total</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="6">
         <v>1983</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Production (x1000 short tons) 1983 - Surface</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="6">
         <v>1983</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Production (x1000 short tons) 1983 - Underground</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="6">
         <v>2020</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Production (x1000 short tons) 2020 - Total</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="6">
         <v>2020</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Production (x1000 short tons) 2020 - Surface</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="6">
         <v>2020</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Coal Production (x1000 short tons) 2020 - Underground</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B20" s="4">
         <v>1986</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Mining Employment 1986 - Count</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B21" s="4">
         <v>1986</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="F21" t="str">
+        <f>_xlfn.CONCAT(A21, " ", B21, " - ", D21)</f>
+        <v>Mining Employment 1986 - Percent of Population</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B22" s="4">
         <v>2020</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Mining Employment 2020 - Count</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B23" s="4">
         <v>2020</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Mining Employment 2020 - Percent of Population</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Weekly Coal Exposure Hours Total - Total Exposure</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Weekly Coal Exposure Hours Total - Exposure at Surface Mines</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Weekly Coal Exposure Hours Total - Exposure at Underground Mines</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Weekly Coal Exposure Hours Per Coal Miner - Total Exposure</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Weekly Coal Exposure Hours Per Coal Miner - Exposure at Surface Mines</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Weekly Coal Exposure Hours Per Coal Miner - Exposure at Underground Mines</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>25</v>
@@ -1414,16 +1542,20 @@
       <c r="E30" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Type of Coal Produced Type of Coal - Any</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>27</v>
@@ -1431,16 +1563,20 @@
       <c r="E31" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Type of Coal Produced Type of Coal - Anthracite</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>29</v>
@@ -1448,16 +1584,20 @@
       <c r="E32" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Type of Coal Produced Type of Coal - Bituminous</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>31</v>
@@ -1465,16 +1605,20 @@
       <c r="E33" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Type of Coal Produced Type of Coal - Lignite</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
@@ -1482,16 +1626,20 @@
       <c r="E34" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Households with Residential Coal Use Statistic - Count</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>17</v>
@@ -1499,186 +1647,230 @@
       <c r="E35" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Households with Residential Coal Use Statistic - Percent of Population</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Total Cases - Any Coal Miner's Pneumoconiosis</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Total Cases - ILO Level 1 (least severe)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Total Cases - ILO Level 2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Total Cases - ILO Level 3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Total Cases - Progressive Massive Fibrosis (PMF, most severe)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Cases per 1000 residents - Any Coal Miner's Pneumoconiosis</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Cases per 1000 residents - ILO Level 1 (least severe)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Cases per 1000 residents - ILO Level 2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Cases per 1000 residents - ILO Level 3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases (1970-2014) Cases per 1000 residents - Progressive Massive Fibrosis (PMF, most severe)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1686,651 +1878,807 @@
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Total Cases - Any Coal Miner's Pneumoconiosis</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Total Cases - ILO Level 1 (least severe)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Total Cases - ILO Level 2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Total Cases - ILO Level 3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Total Cases - Progressive Massive Fibrosis (PMF, most severe)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Cases per 1000 residents - Any Coal Miner's Pneumoconiosis</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Cases per 1000 residents - ILO Level 1 (least severe)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Cases per 1000 residents - ILO Level 2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="F54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Cases per 1000 residents - ILO Level 3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Surface Mines (1970-2014) Cases per 1000 residents - Progressive Massive Fibrosis (PMF, most severe)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Total Cases - Any Coal Miner's Pneumoconiosis</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Total Cases - ILO Level 1 (least severe)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Total Cases - ILO Level 2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Total Cases - ILO Level 3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Total Cases - Progressive Massive Fibrosis (PMF, most severe)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Cases per 1000 residents - Any Coal Miner's Pneumoconiosis</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Cases per 1000 residents - ILO Level 1 (least severe)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Cases per 1000 residents - ILO Level 2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Cases per 1000 residents - ILO Level 3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumulative Black Lung Cases - Underground Mines (1970-2014) Cases per 1000 residents - Progressive Massive Fibrosis (PMF, most severe)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Proportion of Black Lung Cases with complications (PMF) (1970-2014) Proportions - Total Cases</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f t="shared" ref="F67:F84" si="1">_xlfn.CONCAT(A67, " ", B67, " - ", D67)</f>
+        <v>Proportion of Black Lung Cases with complications (PMF) (1970-2014) Proportions - Surface</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Proportion of Black Lung Cases with complications (PMF) (1970-2014) Proportions - Underground</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="B69" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Total Deaths - Any Black Lung</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Total Deaths - Coal Miner's Pneumoconiosis (J60)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Total Deaths - Asbestiosis (J61)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Total Deaths - Talc dust/Silicosis (J62.8)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Total Deaths - Berylliosis/Other inorganic dust (J63.2)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Total Deaths - Unspecified Pneumoconiosis (J64)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" t="s">
         <v>99</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Deaths per 1000 residents - Any Black Lung</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="E76" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Deaths per 1000 residents - Coal Miner's Pneumoconiosis (J60)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="E77" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Deaths per 1000 residents - Asbestiosis (J61)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Deaths per 1000 residents - Talc dust/Silicosis (J62.8)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Deaths per 1000 residents - Berylliosis/Other inorganic dust (J63.2)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>Cumulative Black Lung Deaths (1999-2020) Deaths per 1000 residents - Unspecified Pneumoconiosis (J64)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Regression-estimated Black Lung Cases (1970-2014) Estimates - Any Coal Miner's Pneumoconiosis</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Regression-estimated Black Lung Cases (1970-2014) Estimates - Progressive Massive Fibrosis (PMF, most severe)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>Regression-estimated Black Lung Deaths (1999-2020) Estimates - Any Black Lung</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" t="s">
-        <v>109</v>
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>Regression-estimated Black Lung Deaths (1999-2020) Estimates - Coal Miner's Pneumoconiosis (J60)</v>
       </c>
     </row>
   </sheetData>

--- a/BlackLung_Dashboard/blacklung_crosswalk-updated2.xlsx
+++ b/BlackLung_Dashboard/blacklung_crosswalk-updated2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Summit\DOL ADRA\DOL_ADRA_BlackLung\BlackLung_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D844DCB-D56A-4D00-9D6F-5EAA6E993598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334934E0-622D-4DB4-997A-B2206515723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{62AC56FD-1801-4442-89C9-C7A6796C2B2A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{62AC56FD-1801-4442-89C9-C7A6796C2B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -341,9 +341,6 @@
     <t>total_cwp_deaths</t>
   </si>
   <si>
-    <t>Asbestiosis (J61)</t>
-  </si>
-  <si>
     <t>total_j61_deaths</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>Estimates</t>
+  </si>
+  <si>
+    <t>Asbestosis (J61)</t>
   </si>
 </sst>
 </file>
@@ -905,7 +905,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:B92"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,15 +935,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -961,10 +961,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="4">
         <v>1983</v>
@@ -1075,7 +1075,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="4">
         <v>1983</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4">
         <v>1983</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="4">
         <v>2020</v>
@@ -1138,7 +1138,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>37</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="4">
         <v>2020</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="4">
         <v>2020</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="6">
         <v>1983</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6">
         <v>1983</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="6">
         <v>1983</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="6">
         <v>2020</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6">
         <v>2020</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="6">
         <v>2020</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="4">
         <v>1986</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="4">
         <v>1986</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="4">
         <v>2020</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="4">
         <v>2020</v>
@@ -1432,7 +1432,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>48</v>
@@ -1453,7 +1453,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>49</v>
@@ -1468,7 +1468,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>40</v>
@@ -1489,13 +1489,13 @@
         <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>52</v>
@@ -1510,13 +1510,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>54</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>25</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>27</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>29</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>31</v>
@@ -1615,10 +1615,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
@@ -1636,10 +1636,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>17</v>
@@ -1657,7 +1657,7 @@
         <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>40</v>
@@ -1678,13 +1678,13 @@
         <v>74</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>76</v>
@@ -1699,13 +1699,13 @@
         <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>77</v>
@@ -1720,13 +1720,13 @@
         <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>78</v>
@@ -1741,13 +1741,13 @@
         <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>79</v>
@@ -1762,7 +1762,7 @@
         <v>74</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>40</v>
@@ -1783,13 +1783,13 @@
         <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>81</v>
@@ -1804,13 +1804,13 @@
         <v>74</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>82</v>
@@ -1825,13 +1825,13 @@
         <v>74</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>83</v>
@@ -1846,13 +1846,13 @@
         <v>74</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>84</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>40</v>
@@ -1885,19 +1885,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1906,16 +1906,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -1948,16 +1948,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>13</v>
@@ -1969,10 +1969,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>40</v>
@@ -1990,16 +1990,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>70</v>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>71</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>72</v>
@@ -2053,16 +2053,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>73</v>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>40</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -2095,16 +2095,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -2116,16 +2116,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
@@ -2158,16 +2158,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>40</v>
@@ -2200,16 +2200,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>65</v>
@@ -2221,16 +2221,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>66</v>
@@ -2242,16 +2242,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>67</v>
@@ -2263,16 +2263,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>68</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>85</v>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>34</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>53</v>
@@ -2350,13 +2350,13 @@
         <v>88</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
         <v>89</v>
@@ -2371,7 +2371,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>40</v>
@@ -2392,20 +2392,20 @@
         <v>88</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" t="s">
         <v>92</v>
-      </c>
-      <c r="E71" t="s">
-        <v>93</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>Cumulative Black Lung Deaths (1999-2020) Total Deaths - Asbestiosis (J61)</v>
+        <v>Cumulative Black Lung Deaths (1999-2020) Total Deaths - Asbestosis (J61)</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,16 +2413,16 @@
         <v>88</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -2434,16 +2434,16 @@
         <v>88</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
@@ -2455,16 +2455,16 @@
         <v>88</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" t="s">
         <v>96</v>
-      </c>
-      <c r="E74" t="s">
-        <v>97</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
@@ -2476,16 +2476,16 @@
         <v>88</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" t="s">
         <v>98</v>
-      </c>
-      <c r="E75" t="s">
-        <v>99</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
@@ -2497,7 +2497,7 @@
         <v>88</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>40</v>
@@ -2506,7 +2506,7 @@
         <v>90</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -2518,20 +2518,20 @@
         <v>88</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v>Cumulative Black Lung Deaths (1999-2020) Deaths per 1000 residents - Asbestiosis (J61)</v>
+        <v>Cumulative Black Lung Deaths (1999-2020) Deaths per 1000 residents - Asbestosis (J61)</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,16 +2539,16 @@
         <v>88</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
@@ -2560,16 +2560,16 @@
         <v>88</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
@@ -2581,16 +2581,16 @@
         <v>88</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
@@ -2599,19 +2599,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2620,19 +2620,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2641,19 +2641,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C83" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
@@ -2662,19 +2662,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C84" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
